--- a/results_final/ti_HM.xlsx
+++ b/results_final/ti_HM.xlsx
@@ -486,91 +486,91 @@
         <v>0.98</v>
       </c>
       <c r="D2">
-        <v>1.556060110305386</v>
+        <v>1.556312310768631</v>
       </c>
       <c r="E2">
-        <v>2.197559776593686</v>
+        <v>2.198792745987445</v>
       </c>
       <c r="F2">
-        <v>2.835601846558793</v>
+        <v>2.839000178976151</v>
       </c>
       <c r="G2">
-        <v>3.433433688526137</v>
+        <v>3.440493344366906</v>
       </c>
       <c r="H2">
-        <v>3.972124914913885</v>
+        <v>3.984470386134628</v>
       </c>
       <c r="I2">
-        <v>4.44383462285136</v>
+        <v>4.463045771634981</v>
       </c>
       <c r="J2">
-        <v>4.847085175494484</v>
+        <v>4.874540926458894</v>
       </c>
       <c r="K2">
-        <v>5.183430842096524</v>
+        <v>5.220171709781399</v>
       </c>
       <c r="L2">
-        <v>5.455506157444305</v>
+        <v>5.5021343309656</v>
       </c>
       <c r="M2">
-        <v>5.658309842224586</v>
+        <v>5.714910465432629</v>
       </c>
       <c r="N2">
-        <v>5.795671990345435</v>
+        <v>5.861690613148155</v>
       </c>
       <c r="O2">
-        <v>5.869153917792468</v>
+        <v>5.943207533309176</v>
       </c>
       <c r="P2">
-        <v>5.877817653592294</v>
+        <v>5.957422695658019</v>
       </c>
       <c r="Q2">
-        <v>5.833945766326782</v>
+        <v>5.916478857470395</v>
       </c>
       <c r="R2">
-        <v>5.760697970840521</v>
+        <v>5.844445801397892</v>
       </c>
       <c r="S2">
-        <v>5.673253170923222</v>
+        <v>5.757124627193059</v>
       </c>
       <c r="T2">
-        <v>5.581356806311219</v>
+        <v>5.664684741295121</v>
       </c>
       <c r="U2">
-        <v>5.491067691967054</v>
+        <v>5.573471874536271</v>
       </c>
       <c r="V2">
-        <v>5.40595896821321</v>
+        <v>5.487251044832888</v>
       </c>
       <c r="W2">
-        <v>5.327945106338504</v>
+        <v>5.40806261693606</v>
       </c>
       <c r="X2">
-        <v>5.257851493563178</v>
+        <v>5.336812122870487</v>
       </c>
       <c r="Y2">
-        <v>5.19580596143319</v>
+        <v>5.273675972675211</v>
       </c>
       <c r="Z2">
-        <v>5.141506650078502</v>
+        <v>5.218379304801164</v>
       </c>
       <c r="AA2">
-        <v>5.094403744668926</v>
+        <v>5.170384769993985</v>
       </c>
       <c r="AB2">
-        <v>5.053821167629342</v>
+        <v>5.129019193571377</v>
       </c>
       <c r="AC2">
-        <v>5.019036464908084</v>
+        <v>5.093556952227794</v>
       </c>
       <c r="AD2">
-        <v>4.989331701742377</v>
+        <v>5.063273301403831</v>
       </c>
       <c r="AE2">
-        <v>4.964024400924713</v>
+        <v>5.037476985802384</v>
       </c>
       <c r="AF2">
-        <v>4.94625108655783</v>
+        <v>5.019366639241145</v>
       </c>
     </row>
   </sheetData>
